--- a/dragon-verse/Excels/CollectibleItem_采集物品表.xlsx
+++ b/dragon-verse/Excels/CollectibleItem_采集物品表.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\dragon-verse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E5AACA-2509-4A32-8000-4CE74EE3E19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C147EA-2774-4B19-91A5-96ACEF725E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>int</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>采集结果算法 ID</t>
-  </si>
-  <si>
-    <t>1|3|5|7|9|11</t>
   </si>
   <si>
     <t>19864DB9433C12B44D2F95BE76825159</t>
@@ -480,7 +477,7 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -614,17 +611,17 @@
       <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F5" s="4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="H5" s="6">
         <v>120</v>
@@ -649,17 +646,17 @@
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>25</v>
+      <c r="D6" s="5">
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="H6" s="6">
         <v>120</v>
@@ -684,17 +681,17 @@
       <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>25</v>
+      <c r="D7" s="5">
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="H7" s="6">
         <v>120</v>
